--- a/串本モデルロケット図面/缶サットロケット串本モデル図面.xlsx
+++ b/串本モデルロケット図面/缶サットロケット串本モデル図面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\github\kushimoto_model2202\串本モデルロケット図面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA9B1EF-43CD-41CB-B119-F056301311E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9AB177-C21D-418F-86D4-0953FC6B0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="90" windowWidth="26070" windowHeight="15555" activeTab="3" xr2:uid="{0A164B51-A39C-4AA8-A7B0-55092707F9C2}"/>
+    <workbookView xWindow="2535" yWindow="90" windowWidth="26070" windowHeight="15555" activeTab="2" xr2:uid="{0A164B51-A39C-4AA8-A7B0-55092707F9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="フィン" sheetId="1" r:id="rId1"/>
@@ -7826,7 +7826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3244502D-C483-46E7-9C1D-8F69FF7AC995}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -7842,7 +7842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5648C1-DFDF-4774-AF8E-095DCC76B379}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>

--- a/串本モデルロケット図面/缶サットロケット串本モデル図面.xlsx
+++ b/串本モデルロケット図面/缶サットロケット串本モデル図面.xlsx
@@ -1,41 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\github\kushimoto_model2202\串本モデルロケット図面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\kushimoto_model2022\串本モデルロケット図面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9AB177-C21D-418F-86D4-0953FC6B0C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31E680-180A-4390-89A2-770A205CE8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="90" windowWidth="26070" windowHeight="15555" activeTab="2" xr2:uid="{0A164B51-A39C-4AA8-A7B0-55092707F9C2}"/>
+    <workbookView xWindow="2970" yWindow="150" windowWidth="25875" windowHeight="15105" xr2:uid="{0A164B51-A39C-4AA8-A7B0-55092707F9C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="フィン" sheetId="1" r:id="rId1"/>
-    <sheet name="エンジン部" sheetId="2" r:id="rId2"/>
-    <sheet name="エンジン部組み立て写真" sheetId="6" r:id="rId3"/>
-    <sheet name="ペイロード" sheetId="3" r:id="rId4"/>
-    <sheet name="開閉機構" sheetId="4" r:id="rId5"/>
-    <sheet name="開閉機構組み立て写真" sheetId="7" r:id="rId6"/>
-    <sheet name="ノーズコーン" sheetId="5" r:id="rId7"/>
+    <sheet name="材料リスト" sheetId="8" r:id="rId1"/>
+    <sheet name="フィン" sheetId="1" r:id="rId2"/>
+    <sheet name="エンジン部" sheetId="2" r:id="rId3"/>
+    <sheet name="エンジン部組み立て写真" sheetId="6" r:id="rId4"/>
+    <sheet name="ペイロード" sheetId="3" r:id="rId5"/>
+    <sheet name="開閉機構" sheetId="4" r:id="rId6"/>
+    <sheet name="開閉機構組み立て写真" sheetId="7" r:id="rId7"/>
+    <sheet name="ノーズコーン" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>工作用紙 ３２０×４５０ミリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10枚</t>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹材 900mm</t>
+    <rPh sb="0" eb="1">
+      <t>タケ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイドゴムバンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミテープ つや無 50mm x 10mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,9 +135,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -101,6 +160,60 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2108459</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1638300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C824E9F9-A405-438A-ADA7-3AB11CD149DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6448" t="21070" r="17101" b="21405"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="723900"/>
+          <a:ext cx="2013209" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -633,7 +746,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1966,7 +2079,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4169,7 +4282,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6362,7 +6475,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6833,7 +6946,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6988,7 +7101,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7773,10 +7886,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB49F3D4-E515-442E-9682-B025AE183D48}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFAF7F6-844B-4408-A6BB-7A19B2960720}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AD78" sqref="AD78"/>
     </sheetView>
   </sheetViews>
@@ -7788,11 +7961,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5064B5-6EC9-4CC2-8485-6407809950EE}">
   <dimension ref="D32:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
@@ -7822,11 +7995,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3244502D-C483-46E7-9C1D-8F69FF7AC995}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -7838,11 +8011,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5648C1-DFDF-4774-AF8E-095DCC76B379}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -7854,11 +8027,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517D98-7600-4450-8737-2F6A8277B7B1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -7870,11 +8043,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8187E-87BB-4DB0-9975-C993770BF9E7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -7882,16 +8055,17 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BCAB28-B828-4E1E-A410-A9D5ED27D7B8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
